--- a/biology/Zoologie/Conus_variegatus/Conus_variegatus.xlsx
+++ b/biology/Zoologie/Conus_variegatus/Conus_variegatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conus variegatus, le Cône variable, est une espèce d'escargots de mer de l'Océan Atlantique de la famille des Conidae, les cônes et leurs alliés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conus variegatus, le Cône variable, est une espèce d'escargots de mer de l'Océan Atlantique de la famille des Conidae, les cônes et leurs alliés.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de "piquer" les humains et doivent donc être manipulés avec précaution, voire pas du tout.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 12 et 43 mm. Elle est de couleur brun jaunâtre ou marron, maculée de brun sur le haut. Elle présente de nombreuses fines lignes tournantes chocolat, souvent interrompues par des taches[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 12 et 43 mm. Elle est de couleur brun jaunâtre ou marron, maculée de brun sur le haut. Elle présente de nombreuses fines lignes tournantes chocolat, souvent interrompues par des taches.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large de l'Angola.
 </t>
